--- a/Flat_details.xlsx
+++ b/Flat_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/mustafa_shaikh_cargill_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/mustafa_shaikh_cargill_com/Documents/Self_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{8FA9C773-3744-ED40-86CC-BE717ADFBF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AF1768-B7FE-1C44-AC0A-FDABE0AC39B8}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{50125FD7-B92C-F94B-8AE3-096A278C483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB332713-C739-304F-9A77-2A4B96204731}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{83720AC4-289D-354D-9347-2B66C75D6D01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{83720AC4-289D-354D-9347-2B66C75D6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Card no</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
     <t>Card No</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
   </si>
   <si>
     <t>Flatno -GF</t>
@@ -853,783 +817,783 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3011</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4011</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3012</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4012</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1021</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3021</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4021</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1022</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3022</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4022</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1031</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2031</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3031</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4031</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1032</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2032</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3032</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4032</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1041</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2041</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3041</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4041</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1042</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2042</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3042</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4042</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D10" s="1">
+        <v>1051</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2051</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3051</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4051</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D11" s="1">
+        <v>1052</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2052</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3052</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4052</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D12" s="1">
+        <v>1061</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2061</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3061</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4061</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D13" s="1">
+        <v>1062</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2062</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3062</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4062</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1071</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G15" s="1">
+        <v>2071</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="J15" s="1">
+        <v>3071</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4071</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D16" s="1">
+        <v>1072</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G16" s="1">
+        <v>2072</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J16" s="1">
+        <v>3072</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4072</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1081</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2081</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3081</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="M17" s="1">
+        <v>4081</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1082</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2082</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3082</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="M18" s="1">
+        <v>4082</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1091</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2091</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3091</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M19" s="1">
+        <v>4091</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D20" s="1">
+        <v>1092</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G20" s="1">
+        <v>2092</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="J20" s="1">
+        <v>3092</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4092</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1101</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2101</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3101</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="M21" s="1">
+        <v>4101</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1102</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2102</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3102</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="M22" s="1">
+        <v>4102</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2111</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3111</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="M23" s="1">
+        <v>4111</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1112</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2112</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3112</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M24" s="1">
+        <v>4112</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="D25" s="1">
+        <v>1121</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G25" s="1">
+        <v>2121</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="J25" s="1">
+        <v>3121</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4121</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="D26" s="1">
+        <v>1122</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G26" s="1">
+        <v>2122</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="J26" s="1">
+        <v>3122</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4122</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1638,25 +1602,25 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
